--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1803.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1803.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155466318315496</v>
+        <v>0.7667979598045349</v>
       </c>
       <c r="B1">
-        <v>2.318856603259383</v>
+        <v>1.601015567779541</v>
       </c>
       <c r="C1">
-        <v>4.205997944477444</v>
+        <v>4.887022495269775</v>
       </c>
       <c r="D1">
-        <v>2.941399204379787</v>
+        <v>2.274394512176514</v>
       </c>
       <c r="E1">
-        <v>1.159293922033368</v>
+        <v>1.238748669624329</v>
       </c>
     </row>
   </sheetData>
